--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.864</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.522868717628563</v>
+        <v>5.522868717628755</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1.742811164177711</v>
+        <v>-1.742811164177771</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.865</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.585352187825501</v>
+        <v>5.585352187825698</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1.820847064224421</v>
+        <v>-1.820847064224482</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.864</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.607954867540933</v>
+        <v>5.607954867541129</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.515</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1.873359465166576</v>
+        <v>-1.87335946516664</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.866</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5.591753680115179</v>
+        <v>5.591753680115356</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.514</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1.902760514020096</v>
+        <v>-1.90276051402016</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.867</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.545984704139517</v>
+        <v>5.545984704139696</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1.918546497932678</v>
+        <v>-1.918546497932743</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.867</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5.473585979606249</v>
+        <v>5.473585979606439</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1.920087493446085</v>
+        <v>-1.92008749344615</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.867</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5.386664856741922</v>
+        <v>5.38666485674209</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1.920737435294124</v>
+        <v>-1.920737435294193</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.868</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5.286761551253419</v>
+        <v>5.286761551253589</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1.917790290782619</v>
+        <v>-1.917790290782682</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.868</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>5.188489662127215</v>
+        <v>5.188489662127393</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1.90847422330541</v>
+        <v>-1.908474223305474</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.867</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5.095283468848837</v>
+        <v>5.095283468849019</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1.906003766856244</v>
+        <v>-1.90600376685631</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.868</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5.001476987221992</v>
+        <v>5.001476987222162</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1.89773460895166</v>
+        <v>-1.89773460895173</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.867</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4.911763510395916</v>
+        <v>4.911763510396067</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1.894245615354565</v>
+        <v>-1.894245615354632</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.867</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.828236164464413</v>
+        <v>4.828236164464568</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1.890223386173991</v>
+        <v>-1.890223386174056</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.867</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.744794831951526</v>
+        <v>4.744794831951674</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1.885378162733583</v>
+        <v>-1.885378162733651</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.867</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.673977894365536</v>
+        <v>4.673977894365683</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1.886927843732864</v>
+        <v>-1.886927843732926</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.866</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.606078227488408</v>
+        <v>4.606078227488553</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1.889080167961645</v>
+        <v>-1.88908016796171</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.867</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.544848246432735</v>
+        <v>4.544848246432881</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1.892197439249899</v>
+        <v>-1.892197439249956</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.866</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.484209747692529</v>
+        <v>4.48420974769268</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1.899995702693944</v>
+        <v>-1.899995702694008</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.866</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.422016686765744</v>
+        <v>4.422016686765901</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1.905427866168009</v>
+        <v>-1.905427866168074</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.866</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4.360513278692574</v>
+        <v>4.36051327869272</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.908125826413293</v>
+        <v>-1.908125826413356</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.865</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>4.304236571621298</v>
+        <v>4.304236571621443</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1.91354993844641</v>
+        <v>-1.913549938446473</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.865</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>4.24762501773484</v>
+        <v>4.247625017734981</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1.919093705842728</v>
+        <v>-1.919093705842787</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.865</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>4.193633113591058</v>
+        <v>4.19363311359119</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-1.920150395952274</v>
+        <v>-1.92015039595234</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.865</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>4.144205652996714</v>
+        <v>4.144205652996837</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1.924350637376571</v>
+        <v>-1.924350637376636</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.864</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>4.092641364061942</v>
+        <v>4.092641364062093</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-1.929241202969501</v>
+        <v>-1.929241202969568</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.863</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>4.045422784080264</v>
+        <v>4.045422784080397</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1.939225747472185</v>
+        <v>-1.939225747472253</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.864</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4.001885863613889</v>
+        <v>4.001885863614036</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1.947472287292245</v>
+        <v>-1.947472287292311</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.863</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>3.948146387624291</v>
+        <v>3.948146387624421</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1.950957487613923</v>
+        <v>-1.950957487613993</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.864</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>3.904541845556588</v>
+        <v>3.904541845556722</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1.957023524043958</v>
+        <v>-1.957023524044018</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.863</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>3.862104058105065</v>
+        <v>3.862104058105198</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1.962700772259548</v>
+        <v>-1.962700772259615</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.863</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>3.816755513366111</v>
+        <v>3.816755513366236</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1.96724296890796</v>
+        <v>-1.967242968908025</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.863</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3.776684877411276</v>
+        <v>3.776684877411419</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1.975393675226628</v>
+        <v>-1.975393675226693</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.863</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3.736353880080309</v>
+        <v>3.736353880080425</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1.980322971027996</v>
+        <v>-1.980322971028059</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.863</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3.699877914303799</v>
+        <v>3.699877914303915</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1.987681928592117</v>
+        <v>-1.987681928592183</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.863</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>3.664589542792307</v>
+        <v>3.664589542792412</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1.997176436072976</v>
+        <v>-1.997176436073042</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.862</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>3.628576983675412</v>
+        <v>3.628576983675535</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-2.006450250082981</v>
+        <v>-2.006450250083047</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.862</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>3.593383485102371</v>
+        <v>3.593383485102493</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-2.01446019365548</v>
+        <v>-2.01446019365555</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.862</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>3.558158204857703</v>
+        <v>3.558158204857822</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-2.026836279841657</v>
+        <v>-2.026836279841726</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.862</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>3.517638059372326</v>
+        <v>3.517638059372437</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-2.029783175072257</v>
+        <v>-2.029783175072327</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.862</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3.486147430916931</v>
+        <v>3.486147430917041</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-2.036579473359179</v>
+        <v>-2.036579473359244</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.862</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>3.457914747758349</v>
+        <v>3.457914747758449</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-2.042544358156154</v>
+        <v>-2.042544358156222</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.862</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3.427606656985422</v>
+        <v>3.427606656985543</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-2.049125573847368</v>
+        <v>-2.04912557384744</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.862</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>3.394478154271327</v>
+        <v>3.394478154271456</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-2.053897363265906</v>
+        <v>-2.053897363265971</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.862</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>3.366844122662035</v>
+        <v>3.366844122662152</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-2.061412047777059</v>
+        <v>-2.061412047777125</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.861</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>3.335642626633165</v>
+        <v>3.335642626633282</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-2.07697308171976</v>
+        <v>-2.076973081719832</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.861</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3.309475815697771</v>
+        <v>3.309475815697891</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-2.08903580663788</v>
+        <v>-2.089035806637952</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.861</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>3.273253790728352</v>
+        <v>3.27325379072847</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-2.101030649528939</v>
+        <v>-2.101030649529011</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.861</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>3.235451393230505</v>
+        <v>3.235451393230607</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-2.108132850075783</v>
+        <v>-2.108132850075853</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1388,14 +1388,14 @@
         <v>0.861</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>3.195762110109263</v>
+        <v>3.195762110109368</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-2.116000324038054</v>
+        <v>-2.116000324038125</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-2.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.864</v>
+        <v>0.865</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.522868717628755</v>
+        <v>5.516026235273563</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.519</v>
+        <v>0.513</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1.742811164177771</v>
+        <v>1.995920110342251</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.865</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.585352187825698</v>
+        <v>5.618435561244039</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.517</v>
+        <v>0.512</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1.820847064224482</v>
+        <v>2.092243345789044</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -511,17 +511,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.864</v>
+        <v>0.866</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.607954867541129</v>
+        <v>5.64025137434639</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>0.515</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1.87335946516664</v>
+        <v>2.120103259266272</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -530,17 +530,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.866</v>
+        <v>0.863</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5.591753680115356</v>
+        <v>5.627605987009515</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>0.514</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1.90276051402016</v>
+        <v>2.144237797647329</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.867</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.545984704139696</v>
+        <v>5.543450026783495</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
-        <v>0.513</v>
+        <v>0.509</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1.918546497932743</v>
+        <v>2.162306198928515</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -568,17 +568,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5.473585979606439</v>
+        <v>5.487137764396921</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
-        <v>0.513</v>
+        <v>0.508</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1.92008749344615</v>
+        <v>2.160317133578506</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -587,17 +587,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.867</v>
+        <v>0.866</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5.38666485674209</v>
+        <v>5.439312669410849</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v>0.511</v>
+        <v>0.508</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1.920737435294193</v>
+        <v>2.146941339315367</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -606,17 +606,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.868</v>
+        <v>0.866</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5.286761551253589</v>
+        <v>5.335943952564431</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v>0.51</v>
+        <v>0.507</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1.917790290782682</v>
+        <v>2.151231681545799</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.868</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>5.188489662127393</v>
+        <v>5.240197415586733</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>0.51</v>
+        <v>0.507</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1.908474223305474</v>
+        <v>2.124293769132015</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -644,17 +644,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.867</v>
+        <v>0.869</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5.095283468849019</v>
+        <v>5.150685207180183</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1.90600376685631</v>
+        <v>2.065137731903651</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -663,17 +663,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.868</v>
+        <v>0.869</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5.001476987222162</v>
+        <v>5.068214473463064</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1.89773460895173</v>
+        <v>1.975827473211941</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -682,17 +682,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4.911763510396067</v>
+        <v>4.999171071061324</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1.894245615354632</v>
+        <v>1.940967677324896</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -701,17 +701,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.828236164464568</v>
+        <v>4.846064636760962</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1.890223386174056</v>
+        <v>1.932653129908218</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -720,17 +720,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.744794831951674</v>
+        <v>4.794206370933793</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
-        <v>0.507</v>
+        <v>0.508</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1.885378162733651</v>
+        <v>1.912106798934028</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -739,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.867</v>
+        <v>0.869</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.673977894365683</v>
+        <v>4.740525821292144</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1.886927843732926</v>
+        <v>1.933673507839427</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -758,17 +758,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.606078227488553</v>
+        <v>4.693939570801657</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>0.506</v>
+        <v>0.507</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1.88908016796171</v>
+        <v>1.905391887274851</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -777,17 +777,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.544848246432881</v>
+        <v>4.637109318291785</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1.892197439249956</v>
+        <v>1.929819408445903</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -796,17 +796,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.866</v>
+        <v>0.868</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.48420974769268</v>
+        <v>4.561153589226439</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1.899995702694008</v>
+        <v>1.922828089102943</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -815,17 +815,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.866</v>
+        <v>0.867</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.422016686765901</v>
+        <v>4.466832880756797</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.505</v>
+        <v>0.506</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1.905427866168074</v>
+        <v>1.915639314988056</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.866</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4.36051327869272</v>
+        <v>4.427450379481181</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>0.504</v>
+        <v>0.502</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.908125826413356</v>
+        <v>2.077502736457629</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.865</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>4.304236571621443</v>
+        <v>4.364803621308831</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
-        <v>0.504</v>
+        <v>0.501</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1.913549938446473</v>
+        <v>2.087090353041619</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.865</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>4.247625017734981</v>
+        <v>4.312116111381363</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1.919093705842787</v>
+        <v>2.050675571479142</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -891,17 +891,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.865</v>
+        <v>0.867</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>4.19363311359119</v>
+        <v>4.268091717008901</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v>0.503</v>
+        <v>0.501</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-1.92015039595234</v>
+        <v>2.07887456219304</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -910,17 +910,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.865</v>
+        <v>0.866</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>4.144205652996837</v>
+        <v>4.237076188967718</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.502</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1.924350637376636</v>
+        <v>2.064880915299645</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.864</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>4.092641364062093</v>
+        <v>4.152594715147846</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>0.503</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-1.929241202969568</v>
+        <v>2.052215432203216</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -948,17 +948,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.863</v>
+        <v>0.865</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>4.045422784080397</v>
+        <v>4.107567417905106</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v>0.502</v>
+        <v>0.499</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1.939225747472253</v>
+        <v>2.058570546769383</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.864</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4.001885863614036</v>
+        <v>4.048579639113028</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1.947472287292311</v>
+        <v>2.081892139107712</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -986,17 +986,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>3.948146387624421</v>
+        <v>4.028712472210078</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1.950957487613993</v>
+        <v>2.069279144162027</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.864</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>3.904541845556722</v>
+        <v>3.946137449933276</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1.957023524044018</v>
+        <v>2.066509985173253</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.863</v>
+        <v>0.865</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>3.862104058105198</v>
+        <v>3.912880043082638</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1.962700772259615</v>
+        <v>2.063436677632768</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.863</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>3.816755513366236</v>
+        <v>3.879195842944078</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1.967242968908025</v>
+        <v>2.058534409919298</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1062,17 +1062,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3.776684877411419</v>
+        <v>3.856713088097163</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1.975393675226693</v>
+        <v>2.093837706587995</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.863</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3.736353880080425</v>
+        <v>3.762593233359587</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1.980322971028059</v>
+        <v>2.159777888887502</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1100,17 +1100,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.863</v>
+        <v>0.865</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3.699877914303915</v>
+        <v>3.838202446430032</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1.987681928592183</v>
+        <v>2.196390048017701</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1119,17 +1119,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>3.664589542792412</v>
+        <v>3.746978823444982</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v>0.496</v>
+        <v>0.494</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1.997176436073042</v>
+        <v>2.203638948565868</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1138,17 +1138,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.862</v>
+        <v>0.864</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>3.628576983675535</v>
+        <v>3.706534444453616</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v>0.497</v>
+        <v>0.494</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-2.006450250083047</v>
+        <v>2.156559191385799</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1157,17 +1157,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.862</v>
+        <v>0.864</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>3.593383485102493</v>
+        <v>3.658208356420774</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-2.01446019365555</v>
+        <v>2.099830112400017</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1176,17 +1176,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.862</v>
+        <v>0.865</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>3.558158204857822</v>
+        <v>3.655329971163447</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-2.026836279841726</v>
+        <v>2.083873950998612</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1195,17 +1195,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.862</v>
+        <v>0.863</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>3.517638059372437</v>
+        <v>3.54223228948599</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-2.029783175072327</v>
+        <v>2.081448381329334</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1214,17 +1214,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.862</v>
+        <v>0.863</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3.486147430917041</v>
+        <v>3.566774864453292</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-2.036579473359244</v>
+        <v>2.135808785680409</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.862</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>3.457914747758449</v>
+        <v>3.503268232170424</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-2.042544358156222</v>
+        <v>2.155126532968533</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1252,17 +1252,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.862</v>
+        <v>0.863</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3.427606656985543</v>
+        <v>3.507526586710454</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-2.04912557384744</v>
+        <v>2.169191125941763</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.862</v>
+        <v>0.863</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>3.394478154271456</v>
+        <v>3.447757660472765</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-2.053897363265971</v>
+        <v>2.168398788207598</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.862</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>3.366844122662152</v>
+        <v>3.419888851810604</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-2.061412047777125</v>
+        <v>2.17703344372586</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.861</v>
+        <v>0.862</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>3.335642626633282</v>
+        <v>3.402405145414351</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.491</v>
+        <v>0.49</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-2.076973081719832</v>
+        <v>2.179328714447642</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1328,17 +1328,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.861</v>
+        <v>0.862</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3.309475815697891</v>
+        <v>3.397955731456149</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.492</v>
+        <v>0.489</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-2.089035806637952</v>
+        <v>2.200258573577592</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1347,17 +1347,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.861</v>
+        <v>0.863</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>3.27325379072847</v>
+        <v>3.309416165042762</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-2.101030649529011</v>
+        <v>2.166845999033771</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.861</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>3.235451393230607</v>
+        <v>3.291465339760347</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>0.491</v>
+        <v>0.488</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-2.108132850075853</v>
+        <v>2.180445104632389</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1385,17 +1385,17 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.861</v>
+        <v>0.863</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>3.195762110109368</v>
+        <v>3.281682695655086</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
-        <v>0.49</v>
+        <v>0.487</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-2.116000324038125</v>
+        <v>2.230117020422483</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-2.xlsx
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.865</v>
+        <v>0.866</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.516026235273563</v>
+        <v>5.561164254235003</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.513</v>
+        <v>0.514</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.995920110342251</v>
+        <v>1.987786776885758</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.865</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.618435561244039</v>
+        <v>5.638717796936959</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.092243345789044</v>
+        <v>2.071267462387856</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.866</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.64025137434639</v>
+        <v>5.65857577778303</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.120103259266272</v>
+        <v>2.117493195909256</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -530,17 +530,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5.627605987009515</v>
+        <v>5.640123506800218</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.144237797647329</v>
+        <v>2.142014110040573</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -549,17 +549,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.543450026783495</v>
+        <v>5.567225191674602</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.162306198928515</v>
+        <v>2.156649926036856</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -568,17 +568,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.868</v>
+        <v>0.869</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5.487137764396921</v>
+        <v>5.529423850359404</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.160317133578506</v>
+        <v>2.151456718916376</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.866</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5.439312669410849</v>
+        <v>5.439764077254033</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.146941339315367</v>
+        <v>2.149433665530416</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.866</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5.335943952564431</v>
+        <v>5.338536663441324</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.151231681545799</v>
+        <v>2.141163858379454</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.868</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>5.240197415586733</v>
+        <v>5.242249830022644</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.124293769132015</v>
+        <v>2.124995548976788</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.869</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5.150685207180183</v>
+        <v>5.155238192730977</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.065137731903651</v>
+        <v>2.103385070712114</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.869</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5.068214473463064</v>
+        <v>5.066233292927071</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.975827473211941</v>
+        <v>2.068382321516906</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.868</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4.999171071061324</v>
+        <v>4.98986810382014</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.940967677324896</v>
+        <v>2.054465286156927</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -701,17 +701,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.868</v>
+        <v>0.869</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.846064636760962</v>
+        <v>4.891337712421815</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.932653129908218</v>
+        <v>2.041948878338967</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.868</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.794206370933793</v>
+        <v>4.802088861816108</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.912106798934028</v>
+        <v>2.031258484508331</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.869</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.740525821292144</v>
+        <v>4.739182842559975</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.933673507839427</v>
+        <v>2.027026500274295</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -758,17 +758,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.693939570801657</v>
+        <v>4.671130036183452</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>0.507</v>
+        <v>0.505</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.905391887274851</v>
+        <v>2.028476174443776</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -777,17 +777,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.868</v>
+        <v>0.867</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.637109318291785</v>
+        <v>4.609194295795771</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>0.506</v>
+        <v>0.504</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.929819408445903</v>
+        <v>2.032419705713646</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -796,17 +796,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.868</v>
+        <v>0.866</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.561153589226439</v>
+        <v>4.5429824141107</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
-        <v>0.505</v>
+        <v>0.503</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.922828089102943</v>
+        <v>2.035354864766092</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.867</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.466832880756797</v>
+        <v>4.477151469963738</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.506</v>
+        <v>0.503</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.915639314988056</v>
+        <v>2.032557787077145</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.866</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4.427450379481181</v>
+        <v>4.419248391662315</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.077502736457629</v>
+        <v>2.056025300058649</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -853,17 +853,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.865</v>
+        <v>0.866</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>4.364803621308831</v>
+        <v>4.379592463696889</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.087090353041619</v>
+        <v>2.057693162927634</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.865</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>4.312116111381363</v>
+        <v>4.306654231348316</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.050675571479142</v>
+        <v>2.040682296357787</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -891,17 +891,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.867</v>
+        <v>0.866</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>4.268091717008901</v>
+        <v>4.25688878737911</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.07887456219304</v>
+        <v>2.048318363425315</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -910,17 +910,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.866</v>
+        <v>0.865</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>4.237076188967718</v>
+        <v>4.202089922749869</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.064880915299645</v>
+        <v>2.049078568248744</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.864</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>4.152594715147846</v>
+        <v>4.154441278172909</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.052215432203216</v>
+        <v>2.064494976339693</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.865</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>4.107567417905106</v>
+        <v>4.104560032886253</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.058570546769383</v>
+        <v>2.079530901006482</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.864</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4.048579639113028</v>
+        <v>4.064032706953919</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.081892139107712</v>
+        <v>2.075685717071325</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.864</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>4.028712472210078</v>
+        <v>4.029302360181168</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.069279144162027</v>
+        <v>2.07374907006894</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.864</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>3.946137449933276</v>
+        <v>3.971848340967238</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.066509985173253</v>
+        <v>2.089395882566331</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.865</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>3.912880043082638</v>
+        <v>3.922445625902578</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.499</v>
+        <v>0.497</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.063436677632768</v>
+        <v>2.105387212880773</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.863</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>3.879195842944078</v>
+        <v>3.888759018383007</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.058534409919298</v>
+        <v>2.131668217280676</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1062,17 +1062,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.864</v>
+        <v>0.863</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3.856713088097163</v>
+        <v>3.85081781339527</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.093837706587995</v>
+        <v>2.147948937358333</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1081,17 +1081,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3.762593233359587</v>
+        <v>3.804830804578727</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.159777888887502</v>
+        <v>2.152336882929093</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.865</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3.838202446430032</v>
+        <v>3.804858178832832</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.196390048017701</v>
+        <v>2.158886915387699</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.864</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>3.746978823444982</v>
+        <v>3.735301968743247</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.203638948565868</v>
+        <v>2.171578094395305</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.864</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>3.706534444453616</v>
+        <v>3.697330088207339</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.156559191385799</v>
+        <v>2.181069675883089</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.864</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>3.658208356420774</v>
+        <v>3.656036453319119</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.099830112400017</v>
+        <v>2.172457029734591</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.865</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>3.655329971163447</v>
+        <v>3.633847288005012</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.083873950998612</v>
+        <v>2.172823395400249</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1195,17 +1195,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>3.54223228948599</v>
+        <v>3.582380414104085</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.081448381329334</v>
+        <v>2.166774192371793</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1214,17 +1214,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.863</v>
+        <v>0.862</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3.566774864453292</v>
+        <v>3.554019689628355</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.135808785680409</v>
+        <v>2.168529104669717</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.862</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>3.503268232170424</v>
+        <v>3.522489064683415</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.155126532968533</v>
+        <v>2.169331958020416</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.863</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3.507526586710454</v>
+        <v>3.492030902503045</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.169191125941763</v>
+        <v>2.172406211584474</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.863</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>3.447757660472765</v>
+        <v>3.461400158252032</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.168398788207598</v>
+        <v>2.166783615740684</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1290,17 +1290,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.862</v>
+        <v>0.863</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>3.419888851810604</v>
+        <v>3.432952227139415</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.17703344372586</v>
+        <v>2.175055782420714</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.862</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>3.402405145414351</v>
+        <v>3.39050077317142</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.179328714447642</v>
+        <v>2.186020905065477</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.862</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3.397955731456149</v>
+        <v>3.410560160871413</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.200258573577592</v>
+        <v>2.197486036131974</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1347,17 +1347,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.863</v>
+        <v>0.864</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>3.309416165042762</v>
+        <v>3.340485804506602</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.166845999033771</v>
+        <v>2.198465710357891</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.861</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>3.291465339760347</v>
+        <v>3.30917474109487</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.180445104632389</v>
+        <v>2.199644933689187</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1388,14 +1388,14 @@
         <v>0.863</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>3.281682695655086</v>
+        <v>3.26450522384128</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.230117020422483</v>
+        <v>2.218545695210481</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>
